--- a/biology/Écologie/Chambrage_(conchyliologie)/Chambrage_(conchyliologie).xlsx
+++ b/biology/Écologie/Chambrage_(conchyliologie)/Chambrage_(conchyliologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les malacologues, le chambrage désigne chez certains bivalves (huîtres) une anomalie de la formation et calcification des coquilles. 
-Cette anomalie est constituée par l'apparition de vides dits « chambres » qui s'emplissent d'une substance gélatineuse translucide[1]
+Cette anomalie est constituée par l'apparition de vides dits « chambres » qui s'emplissent d'une substance gélatineuse translucide
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deux causes en sont connues :
-intoxication de l'huître par un composé organostannique, le tributylétain (TBT) qui a pour origine les antifoulings marins couramment utilisés des années 1960 à 1990. Des doses infimes (1 nanogramme par litre d'eau de mer suffit) peuvent déclencher le chambrage de l'huître[1] ;
-une zoonose due à une colonisation de la coquille par un petit ver polychète parasite ((Polydora sp.) ; Dans ce cas, le chambrage a un contenu noirâtre[1] et le phénomène est également réversible ; par sécrétion de nacre consolidant la coquille, mais ce processus peut être long et nuit à la vente directe[2].</t>
+intoxication de l'huître par un composé organostannique, le tributylétain (TBT) qui a pour origine les antifoulings marins couramment utilisés des années 1960 à 1990. Des doses infimes (1 nanogramme par litre d'eau de mer suffit) peuvent déclencher le chambrage de l'huître ;
+une zoonose due à une colonisation de la coquille par un petit ver polychète parasite ((Polydora sp.) ; Dans ce cas, le chambrage a un contenu noirâtre et le phénomène est également réversible ; par sécrétion de nacre consolidant la coquille, mais ce processus peut être long et nuit à la vente directe.</t>
         </is>
       </c>
     </row>
@@ -544,10 +558,12 @@
           <t>Impacts économiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chambrage peut entrainer une perte de valeur pour l'ostréiculteur ;
-En France, « les chambres « non cicatrisées » qui cèdent à la pression du pouce et qui libèrent de la vase ou une odeur désagréable entraînent le déclassement de l’huître. Les autres chambres « cicatrisées » ou non, et qui ne risquent pas de provoquer un rejet de l’huître par le consommateur à l’ouverture sont acceptées »[3].
+En France, « les chambres « non cicatrisées » qui cèdent à la pression du pouce et qui libèrent de la vase ou une odeur désagréable entraînent le déclassement de l’huître. Les autres chambres « cicatrisées » ou non, et qui ne risquent pas de provoquer un rejet de l’huître par le consommateur à l’ouverture sont acceptées ».
 </t>
         </is>
       </c>
